--- a/Data/aearep-433/candidatepackages.xlsx
+++ b/Data/aearep-433/candidatepackages.xlsx
@@ -43,52 +43,52 @@
     <t>title</t>
   </si>
   <si>
+    <t>norm</t>
+  </si>
+  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
     <t>comtrade</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>rscript</t>
   </si>
   <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>er</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
+    <t>usd</t>
+  </si>
+  <si>
     <t>jc</t>
-  </si>
-  <si>
-    <t>usd</t>
   </si>
   <si>
     <t>rgroup</t>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C9">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D9"/>
     </row>
@@ -469,10 +469,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C10">
-        <v>0.18766577541828156</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D10"/>
     </row>
@@ -481,10 +481,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0.19694960117340088</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -493,10 +493,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C12">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D12"/>
     </row>
@@ -505,10 +505,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>818</v>
+        <v>875</v>
       </c>
       <c r="C13">
-        <v>0.27122014760971069</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D13"/>
     </row>
@@ -517,10 +517,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="C14">
-        <v>0.32659152150154114</v>
+        <v>0.32099172472953796</v>
       </c>
       <c r="D14"/>
     </row>
@@ -529,10 +529,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1077</v>
+        <v>998</v>
       </c>
       <c r="C15">
-        <v>0.35709547996520996</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D15"/>
     </row>
@@ -541,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C16">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D16"/>
     </row>
@@ -553,10 +553,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1270</v>
+        <v>1226</v>
       </c>
       <c r="C17">
-        <v>0.42108753323554993</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D17"/>
     </row>
@@ -565,10 +565,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1375</v>
+        <v>1306</v>
       </c>
       <c r="C18">
-        <v>0.4559018611907959</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D18"/>
     </row>
@@ -577,10 +577,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1472</v>
+        <v>1428</v>
       </c>
       <c r="C19">
-        <v>0.48806366324424744</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D19"/>
     </row>
@@ -589,10 +589,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1553</v>
+        <v>1497</v>
       </c>
       <c r="C20">
-        <v>0.51492041349411011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D20"/>
     </row>
@@ -601,10 +601,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1660</v>
+        <v>1571</v>
       </c>
       <c r="C21">
-        <v>0.55039787292480469</v>
+        <v>0.51933884620666504</v>
       </c>
       <c r="D21"/>
     </row>
@@ -613,10 +613,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1753</v>
+        <v>1904</v>
       </c>
       <c r="C22">
-        <v>0.5812334418296814</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D22"/>
     </row>
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1951</v>
+        <v>1975</v>
       </c>
       <c r="C23">
-        <v>0.64688330888748169</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D23"/>
     </row>
@@ -637,10 +637,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2134</v>
+        <v>2008</v>
       </c>
       <c r="C24">
-        <v>0.70755970478057861</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D24"/>
     </row>
@@ -649,10 +649,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2217</v>
+        <v>2129</v>
       </c>
       <c r="C25">
-        <v>0.73507958650588989</v>
+        <v>0.70380163192749023</v>
       </c>
       <c r="D25"/>
     </row>
@@ -661,10 +661,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2306</v>
+        <v>2224</v>
       </c>
       <c r="C26">
-        <v>0.76458883285522461</v>
+        <v>0.73520660400390625</v>
       </c>
       <c r="D26"/>
     </row>
@@ -673,10 +673,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C27">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D27"/>
     </row>
